--- a/Banco de Dados/Modelagem/GUFI-FÍSICO.xlsx
+++ b/Banco de Dados/Modelagem/GUFI-FÍSICO.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C35A107-2246-4AF4-9D34-33C021D901F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{3C35A107-2246-4AF4-9D34-33C021D901F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2C9F2C2-C8AF-47C2-ACE6-4387CCBD4B2B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -201,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -262,19 +262,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -293,6 +280,28 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -303,13 +312,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -320,13 +324,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -610,71 +616,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="13" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1">
@@ -683,27 +689,27 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>111</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1">
@@ -712,103 +718,103 @@
       <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>333</v>
       </c>
       <c r="J4" s="1">
         <v>2</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D5" s="1">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <v>555</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <v>3</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>9999999999</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F11" s="1">
         <v>1</v>
       </c>
@@ -818,72 +824,75 @@
       <c r="H11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="13">
         <v>44426.583333333336</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E12" s="16"/>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
-      <c r="G12" s="1">
-        <v>2</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E12" s="10"/>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="14">
         <v>44428.833333333336</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -899,35 +908,35 @@
       <c r="F18" s="1">
         <v>1</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
         <v>1</v>
       </c>
       <c r="F19" s="1">
         <v>2</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F20" s="1">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="2">
         <v>3</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="4" t="s">
         <v>38</v>
       </c>
     </row>

--- a/Banco de Dados/Modelagem/GUFI-FÍSICO.xlsx
+++ b/Banco de Dados/Modelagem/GUFI-FÍSICO.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{3C35A107-2246-4AF4-9D34-33C021D901F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2C9F2C2-C8AF-47C2-ACE6-4387CCBD4B2B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E94712F-0F51-4F89-BFC9-2FE3FA142A83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -616,27 +616,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -647,7 +647,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -676,7 +676,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -705,7 +705,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -734,7 +734,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D5" s="2">
         <v>3</v>
       </c>
@@ -757,12 +757,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -779,7 +779,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -814,7 +814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F11" s="1">
         <v>1</v>
       </c>
@@ -837,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E12" s="10"/>
       <c r="F12" s="2">
         <v>2</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>32</v>
       </c>
@@ -872,7 +872,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
@@ -892,7 +892,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -912,7 +912,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>2</v>
       </c>
@@ -932,7 +932,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F20" s="2">
         <v>3</v>
       </c>
